--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value213.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value213.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.530596058950875</v>
+        <v>1.572654128074646</v>
       </c>
       <c r="B1">
-        <v>1.887491896005245</v>
+        <v>3.672016143798828</v>
       </c>
       <c r="C1">
-        <v>1.807881033605404</v>
+        <v>5.51821231842041</v>
       </c>
       <c r="D1">
-        <v>2.103926313820663</v>
+        <v>1.370346784591675</v>
       </c>
       <c r="E1">
-        <v>1.215466661739338</v>
+        <v>0.7982211709022522</v>
       </c>
     </row>
   </sheetData>
